--- a/src/app/data/Melsol-test.xlsx
+++ b/src/app/data/Melsol-test.xlsx
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0.4</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -723,13 +723,13 @@
         <v>21.09</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="H11" t="n">
         <v>31</v>
@@ -749,13 +749,13 @@
         <v>6.93</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="H12" t="n">
         <v>26</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="H13" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="H15" t="n">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -879,13 +879,13 @@
         <v>10.71</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="H17" t="n">
         <v>11</v>
@@ -905,13 +905,13 @@
         <v>11.52</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H18" t="n">
         <v>11</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H19" t="n">
         <v>12</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H20" t="n">
         <v>8</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H22" t="n">
         <v>9</v>
@@ -1035,13 +1035,13 @@
         <v>2.56</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H23" t="n">
         <v>11</v>
